--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/50.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/50.xlsx
@@ -479,13 +479,13 @@
         <v>-9.814450359910355</v>
       </c>
       <c r="E2" t="n">
-        <v>-17.53419836857852</v>
+        <v>-17.55750915331997</v>
       </c>
       <c r="F2" t="n">
-        <v>3.630767035934915</v>
+        <v>3.665884772259965</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.455720757853065</v>
+        <v>-9.451183759480568</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.75531744901093</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.16428379557278</v>
+        <v>-18.18992174758289</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530503283108223</v>
+        <v>3.565772578646147</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.294510645423411</v>
+        <v>-9.288027822317881</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.635352534330371</v>
       </c>
       <c r="E4" t="n">
-        <v>-18.58309079081332</v>
+        <v>-18.6071202595642</v>
       </c>
       <c r="F4" t="n">
-        <v>3.76010571259915</v>
+        <v>3.795257671972268</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.251990952701851</v>
+        <v>-9.245317458328513</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-9.454785398852502</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.37986201792818</v>
+        <v>-19.41013474844812</v>
       </c>
       <c r="F5" t="n">
-        <v>4.009166389420398</v>
+        <v>4.043482328619274</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.14431057645805</v>
+        <v>-9.142438086828022</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-9.214697086051583</v>
       </c>
       <c r="E6" t="n">
-        <v>-19.96002579580438</v>
+        <v>-19.98731134312863</v>
       </c>
       <c r="F6" t="n">
-        <v>4.098058312274645</v>
+        <v>4.129289288140498</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.555864820949299</v>
+        <v>-8.547519286227477</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.91733358038743</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.65011889308316</v>
+        <v>-20.6773017712632</v>
       </c>
       <c r="F7" t="n">
-        <v>4.242758248514727</v>
+        <v>4.272742527629516</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.387575426576353</v>
+        <v>-8.381019268367821</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.565983681185497</v>
       </c>
       <c r="E8" t="n">
-        <v>-21.184008220964</v>
+        <v>-21.21104442893804</v>
       </c>
       <c r="F8" t="n">
-        <v>4.37867752842183</v>
+        <v>4.410944973743468</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.052106442389251</v>
+        <v>-8.039947482311232</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.166875541883956</v>
       </c>
       <c r="E9" t="n">
-        <v>-21.67411160334476</v>
+        <v>-21.69873264192654</v>
       </c>
       <c r="F9" t="n">
-        <v>4.501904946502421</v>
+        <v>4.533492819869559</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.379665013465685</v>
+        <v>-8.371607930149009</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.72728114136472</v>
       </c>
       <c r="E10" t="n">
-        <v>-22.35847967358238</v>
+        <v>-22.38128200160967</v>
       </c>
       <c r="F10" t="n">
-        <v>4.889710749199849</v>
+        <v>4.921650631061404</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.129631424277921</v>
+        <v>-8.124625081246201</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.259301812058451</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.21418298947103</v>
+        <v>-23.2358510679052</v>
       </c>
       <c r="F11" t="n">
-        <v>5.05751613189297</v>
+        <v>5.088414655291873</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.691415071775733</v>
+        <v>-7.685352703260759</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.775586418575784</v>
       </c>
       <c r="E12" t="n">
-        <v>-23.98701763896548</v>
+        <v>-24.01017197548719</v>
       </c>
       <c r="F12" t="n">
-        <v>5.385299597285283</v>
+        <v>5.416799468528816</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.130841544415265</v>
+        <v>-7.122158668219624</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.287181506800431</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.54155813185218</v>
+        <v>-24.56166172808893</v>
       </c>
       <c r="F13" t="n">
-        <v>6.16383971779342</v>
+        <v>6.194337342629235</v>
       </c>
       <c r="G13" t="n">
-        <v>-6.863339533692014</v>
+        <v>-6.856636705277474</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.812763286031573</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.71590247029201</v>
+        <v>-25.73782966609013</v>
       </c>
       <c r="F14" t="n">
-        <v>6.302565287642132</v>
+        <v>6.332050888056496</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.353660567816131</v>
+        <v>-6.350135593865085</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.366959720641325</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.09785613176975</v>
+        <v>-26.11614101745201</v>
       </c>
       <c r="F15" t="n">
-        <v>6.545563595948405</v>
+        <v>6.573978503858915</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.858101053771898</v>
+        <v>-5.851217332103282</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-4.963624537545631</v>
       </c>
       <c r="E16" t="n">
-        <v>-27.12205906932662</v>
+        <v>-27.14213822052904</v>
       </c>
       <c r="F16" t="n">
-        <v>6.797464785759331</v>
+        <v>6.824794334145386</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.613044473574653</v>
+        <v>-5.609211492190991</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.615416660591057</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.97620279202474</v>
+        <v>-27.99301853114349</v>
       </c>
       <c r="F17" t="n">
-        <v>7.123898885256375</v>
+        <v>7.152665801661303</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.170183564548896</v>
+        <v>-5.167167047312009</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.331508812676303</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.53570562688135</v>
+        <v>-28.55225002611899</v>
       </c>
       <c r="F18" t="n">
-        <v>7.510277097948664</v>
+        <v>7.537259526847167</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.015734948616186</v>
+        <v>-5.014840260359541</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-4.120876754038644</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.47068418911703</v>
+        <v>-29.48651723785553</v>
       </c>
       <c r="F19" t="n">
-        <v>7.624909641957219</v>
+        <v>7.65119783188062</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.893177324476362</v>
+        <v>-4.89340221879224</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.989598602774626</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.92464803273755</v>
+        <v>-29.9393370538692</v>
       </c>
       <c r="F20" t="n">
-        <v>7.819487226253567</v>
+        <v>7.841766430546098</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.719070011931787</v>
+        <v>-4.715941047536961</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.938787786128446</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.76480675129285</v>
+        <v>-30.78223361626997</v>
       </c>
       <c r="F21" t="n">
-        <v>8.126829753935308</v>
+        <v>8.151040115940271</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.636059564338438</v>
+        <v>-4.632114135796837</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.968642776553769</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.93641578132843</v>
+        <v>-30.9521657169502</v>
       </c>
       <c r="F22" t="n">
-        <v>8.159659435046642</v>
+        <v>8.184881821473056</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.85498929183889</v>
+        <v>-4.850999862235486</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-4.076315050142863</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.427426074483</v>
+        <v>-31.44120818484084</v>
       </c>
       <c r="F23" t="n">
-        <v>8.199250612654918</v>
+        <v>8.222502729313966</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.668351454694411</v>
+        <v>-4.662890434024067</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-4.254928359561596</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.44536139617428</v>
+        <v>-31.45938306786859</v>
       </c>
       <c r="F24" t="n">
-        <v>8.576173486066594</v>
+        <v>8.601078087046659</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.853263472414868</v>
+        <v>-4.850095395965107</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.494834845262124</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.53264972477618</v>
+        <v>-31.54453490046965</v>
       </c>
       <c r="F25" t="n">
-        <v>8.525508707904754</v>
+        <v>8.549836406074522</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.675308511466032</v>
+        <v>-4.672604890668627</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.783292107274808</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.4805060220371</v>
+        <v>-31.48804487062588</v>
       </c>
       <c r="F26" t="n">
-        <v>8.161888822177955</v>
+        <v>8.18325867119324</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.704994561161938</v>
+        <v>-4.700442895768841</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.105442650199544</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.58906641951694</v>
+        <v>-31.59653193300272</v>
       </c>
       <c r="F27" t="n">
-        <v>8.367070662368642</v>
+        <v>8.392957953728956</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.47717173017057</v>
+        <v>-4.47528457351994</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.448436738718361</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.29851763042305</v>
+        <v>-31.30897766061482</v>
       </c>
       <c r="F28" t="n">
-        <v>8.348619550452904</v>
+        <v>8.374105943250132</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.702183382213462</v>
+        <v>-4.700970908510468</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.797708724303487</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.04548708002587</v>
+        <v>-31.05382039223053</v>
       </c>
       <c r="F29" t="n">
-        <v>8.190333064129666</v>
+        <v>8.218899531253051</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.603982790284609</v>
+        <v>-4.604041458367012</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-6.138841386303937</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.32890280810093</v>
+        <v>-31.33952662002274</v>
       </c>
       <c r="F30" t="n">
-        <v>7.806643805214181</v>
+        <v>7.833821794387361</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.84541661639347</v>
+        <v>-4.848922034317048</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-6.460611616626327</v>
       </c>
       <c r="E31" t="n">
-        <v>-31.05981187014593</v>
+        <v>-31.06932343300551</v>
       </c>
       <c r="F31" t="n">
-        <v>7.849901737972644</v>
+        <v>7.880409140822193</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.781214178217143</v>
+        <v>-4.785790288644575</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.751875973928906</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.83855008636996</v>
+        <v>-30.84833298911066</v>
       </c>
       <c r="F32" t="n">
-        <v>7.7348242943392</v>
+        <v>7.765972157088315</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.970174293623406</v>
+        <v>-4.976168216042243</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-7.003568467319781</v>
       </c>
       <c r="E33" t="n">
-        <v>-30.34751779268449</v>
+        <v>-30.35556754249087</v>
       </c>
       <c r="F33" t="n">
-        <v>7.796176441512116</v>
+        <v>7.827353638302433</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.879933004873889</v>
+        <v>-4.884059326669566</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.209119031363587</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.98372679171735</v>
+        <v>-29.99173498496536</v>
       </c>
       <c r="F34" t="n">
-        <v>7.776791529284798</v>
+        <v>7.810115000089691</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.960704287322192</v>
+        <v>-4.966219087068072</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.362291551536656</v>
       </c>
       <c r="E35" t="n">
-        <v>-29.73652638200896</v>
+        <v>-29.74593527572434</v>
       </c>
       <c r="F35" t="n">
-        <v>7.876605493479734</v>
+        <v>7.911894345045126</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.876657370273056</v>
+        <v>-4.878881868397503</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-7.464658157562764</v>
       </c>
       <c r="E36" t="n">
-        <v>-29.38128380954862</v>
+        <v>-29.39516125554036</v>
       </c>
       <c r="F36" t="n">
-        <v>7.958887479049912</v>
+        <v>7.996562165966359</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.065436592425243</v>
+        <v>-5.066360614723091</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-7.519686383773792</v>
       </c>
       <c r="E37" t="n">
-        <v>-29.29063673322915</v>
+        <v>-29.30177389087198</v>
       </c>
       <c r="F37" t="n">
-        <v>8.13210499234471</v>
+        <v>8.168479203434556</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.111236808754502</v>
+        <v>-5.113529752975086</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-7.531790096544666</v>
       </c>
       <c r="E38" t="n">
-        <v>-28.65993040236279</v>
+        <v>-28.67100889192322</v>
       </c>
       <c r="F38" t="n">
-        <v>7.880619368117471</v>
+        <v>7.916954467152383</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.097855596959756</v>
+        <v>-5.098980068539147</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-7.509835301379831</v>
       </c>
       <c r="E39" t="n">
-        <v>-28.33621459068375</v>
+        <v>-28.35194008127118</v>
       </c>
       <c r="F39" t="n">
-        <v>7.766231274452262</v>
+        <v>7.801588572113791</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.199938060340941</v>
+        <v>-5.20386882186194</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-7.463448964409986</v>
       </c>
       <c r="E40" t="n">
-        <v>-27.89799090467126</v>
+        <v>-27.91329594066814</v>
       </c>
       <c r="F40" t="n">
-        <v>7.812095047870791</v>
+        <v>7.845369628607014</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.044545866082916</v>
+        <v>-5.046090792252861</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-7.402450731920965</v>
       </c>
       <c r="E41" t="n">
-        <v>-27.67151499507173</v>
+        <v>-27.68715248353556</v>
       </c>
       <c r="F41" t="n">
-        <v>7.585362465410744</v>
+        <v>7.618778827346107</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.558664050193958</v>
+        <v>-5.562091244007665</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-7.336973824492603</v>
       </c>
       <c r="E42" t="n">
-        <v>-27.02024061231625</v>
+        <v>-27.03759169768693</v>
       </c>
       <c r="F42" t="n">
-        <v>7.491473977538509</v>
+        <v>7.524709446219797</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.27063309963653</v>
+        <v>-5.275140763967826</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-7.275229343611252</v>
       </c>
       <c r="E43" t="n">
-        <v>-26.67284734038074</v>
+        <v>-26.69282137793553</v>
       </c>
       <c r="F43" t="n">
-        <v>7.505520094267156</v>
+        <v>7.539391133841142</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.389343075372093</v>
+        <v>-5.393865406723989</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.225398404461188</v>
       </c>
       <c r="E44" t="n">
-        <v>-26.1001539649972</v>
+        <v>-26.11975888253352</v>
       </c>
       <c r="F44" t="n">
-        <v>7.601813973517912</v>
+        <v>7.63524011346701</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.490687298716373</v>
+        <v>-5.493278472355837</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.196201976561611</v>
       </c>
       <c r="E45" t="n">
-        <v>-25.41170846303257</v>
+        <v>-25.43121071142469</v>
       </c>
       <c r="F45" t="n">
-        <v>7.667160439301098</v>
+        <v>7.700312794865647</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.543571685995792</v>
+        <v>-5.546275306793196</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.192615080072151</v>
       </c>
       <c r="E46" t="n">
-        <v>-25.08668239751319</v>
+        <v>-25.10660998950274</v>
       </c>
       <c r="F46" t="n">
-        <v>7.494065151177973</v>
+        <v>7.527383732975999</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.435143291701352</v>
+        <v>-5.43584241968332</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.21831412271708</v>
       </c>
       <c r="E47" t="n">
-        <v>-24.87223100030284</v>
+        <v>-24.89365951740053</v>
       </c>
       <c r="F47" t="n">
-        <v>7.590261250291392</v>
+        <v>7.625041645142625</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.333872403460076</v>
+        <v>-5.330420764612033</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.27692382353014</v>
       </c>
       <c r="E48" t="n">
-        <v>-24.44125037796368</v>
+        <v>-24.46539718287938</v>
       </c>
       <c r="F48" t="n">
-        <v>7.570773668919869</v>
+        <v>7.604263365958237</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.286928159523958</v>
+        <v>-5.282366716117126</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.367895499846862</v>
       </c>
       <c r="E49" t="n">
-        <v>-23.65113797820156</v>
+        <v>-23.67401364133185</v>
       </c>
       <c r="F49" t="n">
-        <v>7.844748724734916</v>
+        <v>7.881074045756094</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.392672489048461</v>
+        <v>-5.389411521468229</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.488779239821598</v>
       </c>
       <c r="E50" t="n">
-        <v>-23.58172874771197</v>
+        <v>-23.60832983407485</v>
       </c>
       <c r="F50" t="n">
-        <v>7.582903294956685</v>
+        <v>7.616275655830247</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.409031106025159</v>
+        <v>-5.407173283415731</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.634933395578845</v>
       </c>
       <c r="E51" t="n">
-        <v>-22.91516155147678</v>
+        <v>-22.94007593047058</v>
       </c>
       <c r="F51" t="n">
-        <v>7.651716066608513</v>
+        <v>7.686432904370476</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.22954099692011</v>
+        <v>-5.226739595985368</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.797304963863739</v>
       </c>
       <c r="E52" t="n">
-        <v>-22.39927843588679</v>
+        <v>-22.42530750844624</v>
       </c>
       <c r="F52" t="n">
-        <v>7.493625140559951</v>
+        <v>7.527598849278143</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.417880208454275</v>
+        <v>-5.418290885031096</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.971557991323016</v>
       </c>
       <c r="E53" t="n">
-        <v>-22.04541700786635</v>
+        <v>-22.07347990728244</v>
       </c>
       <c r="F53" t="n">
-        <v>7.860735777189728</v>
+        <v>7.895276610704482</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.357877427176628</v>
+        <v>-5.353433319934602</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.150422213999802</v>
       </c>
       <c r="E54" t="n">
-        <v>-21.28844718565504</v>
+        <v>-21.31179219344456</v>
       </c>
       <c r="F54" t="n">
-        <v>7.8063749098365</v>
+        <v>7.841468201127216</v>
       </c>
       <c r="G54" t="n">
-        <v>-5.369718601808296</v>
+        <v>-5.366281629980855</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.324900495495145</v>
       </c>
       <c r="E55" t="n">
-        <v>-21.01185162215933</v>
+        <v>-21.03708867560634</v>
       </c>
       <c r="F55" t="n">
-        <v>7.600542831732514</v>
+        <v>7.633616963187194</v>
       </c>
       <c r="G55" t="n">
-        <v>-5.519747555533315</v>
+        <v>-5.515767903943646</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.49084385160474</v>
       </c>
       <c r="E56" t="n">
-        <v>-20.4974352086294</v>
+        <v>-20.52554699811416</v>
       </c>
       <c r="F56" t="n">
-        <v>7.503290707135842</v>
+        <v>7.533226096181962</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.563117935449718</v>
+        <v>-5.556116877616295</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.64283170162564</v>
       </c>
       <c r="E57" t="n">
-        <v>-20.2104651725621</v>
+        <v>-20.23897297160308</v>
       </c>
       <c r="F57" t="n">
-        <v>7.418808668475552</v>
+        <v>7.446480447342291</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.803353954876184</v>
+        <v>-5.798093383487384</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.776380125144557</v>
       </c>
       <c r="E58" t="n">
-        <v>-19.71860174770925</v>
+        <v>-19.7478233417528</v>
       </c>
       <c r="F58" t="n">
-        <v>7.057447503921267</v>
+        <v>7.083608579666129</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.086368784388156</v>
+        <v>-6.081567779644846</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.888190896526089</v>
       </c>
       <c r="E59" t="n">
-        <v>-19.21039926190718</v>
+        <v>-19.2397284141018</v>
       </c>
       <c r="F59" t="n">
-        <v>7.387059457881806</v>
+        <v>7.416432611138231</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.9762879057727</v>
+        <v>-5.970528655683474</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.973994834023346</v>
       </c>
       <c r="E60" t="n">
-        <v>-18.79708751038505</v>
+        <v>-18.82792736570155</v>
       </c>
       <c r="F60" t="n">
-        <v>7.240276804716419</v>
+        <v>7.267787246356549</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.234696363723489</v>
+        <v>-6.231234946861713</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-9.033427258382035</v>
       </c>
       <c r="E61" t="n">
-        <v>-18.5040502167959</v>
+        <v>-18.53471895687206</v>
       </c>
       <c r="F61" t="n">
-        <v>6.955013032045665</v>
+        <v>6.980792765254908</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.32989021642919</v>
+        <v>-6.322082472462727</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.067897795154067</v>
       </c>
       <c r="E62" t="n">
-        <v>-18.15336664323896</v>
+        <v>-18.1829158007426</v>
       </c>
       <c r="F62" t="n">
-        <v>7.087896238688414</v>
+        <v>7.116218255468452</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.32684925415797</v>
+        <v>-6.31865527864902</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-9.077597754292357</v>
       </c>
       <c r="E63" t="n">
-        <v>-17.59014327415663</v>
+        <v>-17.61886130049288</v>
       </c>
       <c r="F63" t="n">
-        <v>6.926265671668205</v>
+        <v>6.953712556219066</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.214421652246393</v>
+        <v>-6.206936582733146</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-9.065531478324058</v>
       </c>
       <c r="E64" t="n">
-        <v>-17.59083751313173</v>
+        <v>-17.6223911634508</v>
       </c>
       <c r="F64" t="n">
-        <v>6.727395539342706</v>
+        <v>6.755218877422319</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.399113664657839</v>
+        <v>-6.383004387031354</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.036399731705572</v>
       </c>
       <c r="E65" t="n">
-        <v>-17.35947504116871</v>
+        <v>-17.39314563146116</v>
       </c>
       <c r="F65" t="n">
-        <v>6.912874681859726</v>
+        <v>6.940888691207148</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.361986546510487</v>
+        <v>-6.348786227969817</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.994000406809095</v>
       </c>
       <c r="E66" t="n">
-        <v>-17.30215143565414</v>
+        <v>-17.33788029783755</v>
       </c>
       <c r="F66" t="n">
-        <v>6.837183077546148</v>
+        <v>6.86478641031675</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.39952434123466</v>
+        <v>-6.383522621759247</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.942687360500923</v>
       </c>
       <c r="E67" t="n">
-        <v>-17.17108693956588</v>
+        <v>-17.20994476614412</v>
       </c>
       <c r="F67" t="n">
-        <v>6.678881924202309</v>
+        <v>6.706030579334287</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.461634284471947</v>
+        <v>-6.447065044008541</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.885839181111312</v>
       </c>
       <c r="E68" t="n">
-        <v>-16.8269693022312</v>
+        <v>-16.86382263599401</v>
       </c>
       <c r="F68" t="n">
-        <v>6.575366981809119</v>
+        <v>6.602789421325645</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.683966760751772</v>
+        <v>-6.671974026907229</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.825379416908781</v>
       </c>
       <c r="E69" t="n">
-        <v>-16.59332366406134</v>
+        <v>-16.62516576578555</v>
       </c>
       <c r="F69" t="n">
-        <v>6.695392100391881</v>
+        <v>6.720648709866364</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.361321641576587</v>
+        <v>-6.351543627842757</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.766922519598653</v>
       </c>
       <c r="E70" t="n">
-        <v>-16.40104391299244</v>
+        <v>-16.44052264344278</v>
       </c>
       <c r="F70" t="n">
-        <v>6.654588449080609</v>
+        <v>6.680539297530193</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.270058550391885</v>
+        <v>-6.260798771385948</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.712989990045374</v>
       </c>
       <c r="E71" t="n">
-        <v>-16.5014005569496</v>
+        <v>-16.53783343612185</v>
       </c>
       <c r="F71" t="n">
-        <v>6.519666526574357</v>
+        <v>6.54506491724798</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.016807994685691</v>
+        <v>-6.004947264026555</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.66318630172845</v>
       </c>
       <c r="E72" t="n">
-        <v>-16.46588681106833</v>
+        <v>-16.50568332696502</v>
       </c>
       <c r="F72" t="n">
-        <v>6.454784516443529</v>
+        <v>6.479689117423593</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.958702148072407</v>
+        <v>-5.945565386621007</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.621489312202204</v>
       </c>
       <c r="E73" t="n">
-        <v>-16.41731452784553</v>
+        <v>-16.45523366510533</v>
       </c>
       <c r="F73" t="n">
-        <v>6.491843188494744</v>
+        <v>6.516542451186398</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.122356763935517</v>
+        <v>-6.111322275436891</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.58726124562271</v>
       </c>
       <c r="E74" t="n">
-        <v>-16.51256215962677</v>
+        <v>-16.55132220606767</v>
       </c>
       <c r="F74" t="n">
-        <v>6.364841457112894</v>
+        <v>6.391686993819124</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.782942351206814</v>
+        <v>-5.773340341720194</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.558723025801612</v>
       </c>
       <c r="E75" t="n">
-        <v>-16.81878999374285</v>
+        <v>-16.85996032056914</v>
       </c>
       <c r="F75" t="n">
-        <v>6.156364426293907</v>
+        <v>6.182056157379545</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.81259906686152</v>
+        <v>-5.804576206592913</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.533307619517315</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.89318112222983</v>
+        <v>-16.93287007997545</v>
       </c>
       <c r="F76" t="n">
-        <v>6.044914625755714</v>
+        <v>6.069951229921185</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.662002988339939</v>
+        <v>-5.655754837564022</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-8.505434925117623</v>
       </c>
       <c r="E77" t="n">
-        <v>-17.03971443604501</v>
+        <v>-17.07804424988162</v>
       </c>
       <c r="F77" t="n">
-        <v>6.027675987542971</v>
+        <v>6.052815260852649</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.498622156861376</v>
+        <v>-5.494090047495745</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-8.473738475439779</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.48443316768019</v>
+        <v>-17.52356966764984</v>
       </c>
       <c r="F78" t="n">
-        <v>5.97790100863091</v>
+        <v>6.003387401428138</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.10403041263267</v>
+        <v>-5.098139159358038</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-8.436576211906408</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.58055104268374</v>
+        <v>-17.61776616295469</v>
       </c>
       <c r="F79" t="n">
-        <v>6.047109789838959</v>
+        <v>6.072229507121167</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.896951637777621</v>
+        <v>-4.891876848649763</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-8.390953344310081</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.028095620288</v>
+        <v>-18.06498806610574</v>
       </c>
       <c r="F80" t="n">
-        <v>5.729774132121243</v>
+        <v>5.750249292879883</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.411155470446617</v>
+        <v>-4.40327439137715</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-8.338513591866882</v>
       </c>
       <c r="E81" t="n">
-        <v>-18.87794679495696</v>
+        <v>-18.91306942028888</v>
       </c>
       <c r="F81" t="n">
-        <v>5.829993883886132</v>
+        <v>5.854644256509117</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.291609474536812</v>
+        <v>-4.284921313142872</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-8.281376582523995</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.60461455260713</v>
+        <v>-19.64335504302056</v>
       </c>
       <c r="F82" t="n">
-        <v>5.56973738133965</v>
+        <v>5.592446818236469</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.211023974349454</v>
+        <v>-4.206027409331466</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.22139723590028</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.37430557068615</v>
+        <v>-20.41128112962063</v>
       </c>
       <c r="F83" t="n">
-        <v>5.261524610435597</v>
+        <v>5.281897102050031</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.124405439688321</v>
+        <v>-4.119760883164751</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.16090879512897</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.47266007539353</v>
+        <v>-21.51072099385246</v>
       </c>
       <c r="F84" t="n">
-        <v>5.146163604403872</v>
+        <v>5.167523675405423</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.793023665241959</v>
+        <v>-3.792749880857412</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.101755437294338</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.52747308494416</v>
+        <v>-22.56762649834214</v>
       </c>
       <c r="F85" t="n">
-        <v>5.26668740168706</v>
+        <v>5.28961684389289</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.839215002120572</v>
+        <v>-3.840236804555757</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-8.045971653461459</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.33722951429755</v>
+        <v>-23.37869318153586</v>
       </c>
       <c r="F86" t="n">
-        <v>4.89248281609339</v>
+        <v>4.915118917887205</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.766686585249888</v>
+        <v>-3.772387167256711</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.998246101624825</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.05080940056499</v>
+        <v>-24.09060102745481</v>
       </c>
       <c r="F87" t="n">
-        <v>4.650726315531312</v>
+        <v>4.669685884161208</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.780023795982832</v>
+        <v>-3.782776306848905</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.960648771665243</v>
       </c>
       <c r="E88" t="n">
-        <v>-25.38091749778474</v>
+        <v>-25.42173581611661</v>
       </c>
       <c r="F88" t="n">
-        <v>4.698418577518067</v>
+        <v>4.717735043649248</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.744705610376239</v>
+        <v>-3.746714992198541</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.934609111691045</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.80026463734628</v>
+        <v>-26.84374257541376</v>
       </c>
       <c r="F89" t="n">
-        <v>4.176365535262022</v>
+        <v>4.195085542555439</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.739278812753963</v>
+        <v>-3.740295726182281</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.923994796374449</v>
       </c>
       <c r="E90" t="n">
-        <v>-28.15974099881559</v>
+        <v>-28.20132689122557</v>
       </c>
       <c r="F90" t="n">
-        <v>4.36062731506918</v>
+        <v>4.378056624549731</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.738530794703325</v>
+        <v>-3.73941081593937</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.929404300383642</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.9768039579938</v>
+        <v>-30.02491667457111</v>
       </c>
       <c r="F91" t="n">
-        <v>3.867468303396602</v>
+        <v>3.885415847605047</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.087737888186459</v>
+        <v>-4.089805938091164</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.950464367367682</v>
       </c>
       <c r="E92" t="n">
-        <v>-31.69214868480241</v>
+        <v>-31.73953293935655</v>
       </c>
       <c r="F92" t="n">
-        <v>3.550303760919229</v>
+        <v>3.567268614747424</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.1358163817157</v>
+        <v>-4.136163501203251</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.986103476203816</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.36771156273493</v>
+        <v>-33.41309376897707</v>
       </c>
       <c r="F93" t="n">
-        <v>3.2524019054975</v>
+        <v>3.268369401924844</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.537893195457653</v>
+        <v>-4.534485557671413</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.03158642542129</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.26944478733781</v>
+        <v>-35.31707104773187</v>
       </c>
       <c r="F94" t="n">
-        <v>2.794961977994603</v>
+        <v>2.812933967237382</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.569583737968996</v>
+        <v>-4.566366771450565</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.088236421605416</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.48170328309279</v>
+        <v>-37.52892620042032</v>
       </c>
       <c r="F95" t="n">
-        <v>2.191863868905709</v>
+        <v>2.208985170953645</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.78686098114843</v>
+        <v>-4.783839574904676</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.156223263703275</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.41681864658296</v>
+        <v>-39.46558404557701</v>
       </c>
       <c r="F96" t="n">
-        <v>2.009596803900252</v>
+        <v>2.024268713507864</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.080807630014824</v>
+        <v>-5.080558290664611</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.232288176803557</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.54855275473642</v>
+        <v>-41.59922975541543</v>
       </c>
       <c r="F97" t="n">
-        <v>1.381056303075933</v>
+        <v>1.391807229176279</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.517791952786549</v>
+        <v>-5.518095071212298</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.321722099296842</v>
       </c>
       <c r="E98" t="n">
-        <v>-43.49775579151361</v>
+        <v>-43.54595895471795</v>
       </c>
       <c r="F98" t="n">
-        <v>1.012312738152607</v>
+        <v>1.02314677736969</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.808707417395456</v>
+        <v>-5.805857126392045</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.422949212435828</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.020050657734</v>
+        <v>-46.06837849061345</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8393054521530875</v>
+        <v>0.8489074616397084</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.149632533246036</v>
+        <v>-6.149945429685519</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.54251954007678</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.5818951450043</v>
+        <v>-48.62794470068377</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.04575146096452558</v>
+        <v>-0.03650634897918941</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.447720170928707</v>
+        <v>-6.452809627077166</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.673537909907685</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.50332251151882</v>
+        <v>-50.54848226794852</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.1841592453668878</v>
+        <v>-0.1785173314424679</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.912317604484768</v>
+        <v>-6.922286289486408</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.827897787488045</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.82865395809181</v>
+        <v>-52.87348370655799</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.6136340535910314</v>
+        <v>-0.6073272347327111</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.221957965393959</v>
+        <v>-7.233207570194731</v>
       </c>
     </row>
   </sheetData>
